--- a/opt/Recipes.xlsx
+++ b/opt/Recipes.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28803"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{503C64C6-95ED-4294-B7BA-5E0589C1A3F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C6CE1E4-399E-4FFE-AE22-472FCCE89969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cocktails" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Ingredients</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>Mojito</t>
+  </si>
+  <si>
+    <t>Prosecco &amp; elderflower</t>
   </si>
   <si>
     <t>Bank</t>
@@ -489,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A01920D9-908C-4835-BB38-5D4819492AD6}">
-  <dimension ref="A3:H9"/>
+  <dimension ref="A3:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -575,6 +578,11 @@
         <v>12</v>
       </c>
     </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -584,7 +592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -601,18 +609,18 @@
   <sheetData>
     <row r="3" spans="1:7">
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3">
         <v>1000</v>
@@ -635,18 +643,18 @@
     </row>
     <row r="10" spans="1:7">
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <f>1/1.95583</f>
@@ -661,7 +669,7 @@
     </row>
     <row r="16" spans="1:7" ht="29.25">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="2:2">

--- a/opt/Recipes.xlsx
+++ b/opt/Recipes.xlsx
@@ -3,13 +3,29 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28803"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C6CE1E4-399E-4FFE-AE22-472FCCE89969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AA49BAB-D27B-4AD3-81A4-B0F6B15D63AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="17" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cocktails" sheetId="2" r:id="rId1"/>
-    <sheet name="Konten" sheetId="1" r:id="rId2"/>
+    <sheet name="Александър" sheetId="3" r:id="rId2"/>
+    <sheet name="Берна" sheetId="4" r:id="rId3"/>
+    <sheet name="Борис" sheetId="5" r:id="rId4"/>
+    <sheet name="Ванеса" sheetId="6" r:id="rId5"/>
+    <sheet name="Васил" sheetId="7" r:id="rId6"/>
+    <sheet name="Веселина" sheetId="8" r:id="rId7"/>
+    <sheet name="Виктория" sheetId="9" r:id="rId8"/>
+    <sheet name="Гергана" sheetId="10" r:id="rId9"/>
+    <sheet name="Добрин" sheetId="11" r:id="rId10"/>
+    <sheet name="Енчо" sheetId="12" r:id="rId11"/>
+    <sheet name="Есма" sheetId="13" r:id="rId12"/>
+    <sheet name="Йоанна" sheetId="14" r:id="rId13"/>
+    <sheet name="Симона Сл." sheetId="15" r:id="rId14"/>
+    <sheet name="Симона Ст." sheetId="16" r:id="rId15"/>
+    <sheet name="Тея" sheetId="17" r:id="rId16"/>
+    <sheet name="Христина" sheetId="18" r:id="rId17"/>
+    <sheet name="Християна" sheetId="19" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -32,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="16">
   <si>
     <t>Ingredients</t>
   </si>
@@ -76,42 +92,16 @@
     <t>Prosecco &amp; elderflower</t>
   </si>
   <si>
-    <t>Bank</t>
+    <t>Double Bloody Mary</t>
   </si>
   <si>
-    <t>PayPal</t>
-  </si>
-  <si>
-    <t>Revolut</t>
-  </si>
-  <si>
-    <t>Kontostand Boyko</t>
-  </si>
-  <si>
-    <t>EUR/BGN</t>
-  </si>
-  <si>
-    <t>EUR/USD</t>
-  </si>
-  <si>
-    <t>EUR/EUR</t>
-  </si>
-  <si>
-    <t>Wechselkurse</t>
-  </si>
-  <si>
-    <t>Gesamtkontostand (EUR)</t>
+    <t>Stronger Bloody Mary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_([$BGN]\ * #,##0.00_);_([$BGN]\ * \(#,##0.00\);_([$BGN]\ * &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -149,14 +139,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -492,25 +476,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A01920D9-908C-4835-BB38-5D4819492AD6}">
-  <dimension ref="A3:H10"/>
+  <dimension ref="A3:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="E16" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3CB0327-21CD-4F21-9D57-C6F51B854737}">
+  <dimension ref="A3:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:8">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
@@ -556,10 +649,10 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -581,6 +674,880 @@
     <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C58AAE0-CC5B-4D88-BFCF-2D7DD83EEFC5}">
+  <dimension ref="A3:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77740343-3E5B-4CD8-A10A-C1659CB25B87}">
+  <dimension ref="A3:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C198837-D6F9-4738-8D48-2E3113C2AEA5}">
+  <dimension ref="A3:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD6094C-E57C-4515-9FC1-234786659B48}">
+  <dimension ref="A3:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD74C58-C4C5-4F03-8724-D9F69DCDD078}">
+  <dimension ref="A3:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K19" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD7D067-416A-4133-986D-536ED392DE24}">
+  <dimension ref="A3:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{479C424D-7063-4BFB-852D-853F1129C12A}">
+  <dimension ref="A3:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99ED2C66-4F04-4A20-92ED-B1F76406DCD0}">
+  <dimension ref="A3:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -589,91 +1556,863 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:G17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{771C606F-B174-4333-BB21-A0E382CA0CC0}">
+  <dimension ref="A3:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79ADB08-0AB4-4240-B41C-5031C45EA1A4}">
+  <dimension ref="A3:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
       <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
         <v>15</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DA532E-253B-4640-BBA8-E68CDFA1D1A8}">
+  <dimension ref="A3:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1000</v>
-      </c>
-      <c r="C4" s="4">
-        <v>500</v>
-      </c>
-      <c r="D4" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11">
-        <f>1/1.95583</f>
-        <v>0.51129188119621849</v>
-      </c>
-      <c r="C11">
-        <v>0.91</v>
-      </c>
-      <c r="D11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2953B99-9BA6-467F-A945-0F94A4F4D0CD}">
+  <dimension ref="A3:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="29.25">
-      <c r="A16" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="2"/>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C1C7EA-7EA1-4726-A263-358C58D41EA1}">
+  <dimension ref="A3:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{369A5D52-B804-4481-9AD2-4B735D97E2D3}">
+  <dimension ref="A3:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB226915-B889-4B7A-AB12-DEEBDC571A02}">
+  <dimension ref="A3:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCFB2606-0424-4A69-A4F6-97E64844EC0C}">
+  <dimension ref="A3:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/opt/Recipes.xlsx
+++ b/opt/Recipes.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28803"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AA49BAB-D27B-4AD3-81A4-B0F6B15D63AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{341D062E-2D58-4C36-A8AD-F6A68C8E15D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="17" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cocktails" sheetId="2" r:id="rId1"/>
@@ -48,9 +48,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="21">
   <si>
-    <t>Ingredients</t>
+    <t>Zutaten</t>
   </si>
   <si>
     <t>Vodka (ml)</t>
@@ -71,10 +71,10 @@
     <t>Crannbery Juice (ml)</t>
   </si>
   <si>
-    <t>Volume</t>
+    <t>Volumen</t>
   </si>
   <si>
-    <t>Recipes</t>
+    <t>Rezepte</t>
   </si>
   <si>
     <t>Cocktail (ml)</t>
@@ -90,6 +90,21 @@
   </si>
   <si>
     <t>Prosecco &amp; elderflower</t>
+  </si>
+  <si>
+    <t>Bloody Mary (doppelt)</t>
+  </si>
+  <si>
+    <t>Bloody Mary (stärker)</t>
+  </si>
+  <si>
+    <t>Ingredients</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Recipes</t>
   </si>
   <si>
     <t>Double Bloody Mary</t>
@@ -478,13 +493,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A01920D9-908C-4835-BB38-5D4819492AD6}">
   <dimension ref="A3:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -604,7 +619,7 @@
   <sheetData>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -627,7 +642,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -650,7 +665,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>9</v>
@@ -678,12 +693,12 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -712,7 +727,7 @@
   <sheetData>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -735,7 +750,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -758,7 +773,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>9</v>
@@ -786,12 +801,12 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -820,7 +835,7 @@
   <sheetData>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -843,7 +858,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -866,7 +881,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>9</v>
@@ -894,12 +909,12 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -928,7 +943,7 @@
   <sheetData>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -951,7 +966,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -974,7 +989,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>9</v>
@@ -1002,12 +1017,12 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1036,7 +1051,7 @@
   <sheetData>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -1059,7 +1074,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -1082,7 +1097,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>9</v>
@@ -1110,12 +1125,12 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1144,7 +1159,7 @@
   <sheetData>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -1167,7 +1182,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -1190,7 +1205,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>9</v>
@@ -1218,12 +1233,12 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1252,7 +1267,7 @@
   <sheetData>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -1275,7 +1290,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -1298,7 +1313,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>9</v>
@@ -1326,12 +1341,12 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1360,7 +1375,7 @@
   <sheetData>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -1383,7 +1398,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -1406,7 +1421,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>9</v>
@@ -1434,12 +1449,12 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1468,7 +1483,7 @@
   <sheetData>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -1491,7 +1506,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -1514,7 +1529,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>9</v>
@@ -1542,12 +1557,12 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1559,7 +1574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{771C606F-B174-4333-BB21-A0E382CA0CC0}">
   <dimension ref="A3:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -1576,7 +1591,7 @@
   <sheetData>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -1599,7 +1614,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -1622,7 +1637,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>9</v>
@@ -1650,12 +1665,12 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1684,7 +1699,7 @@
   <sheetData>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -1707,7 +1722,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -1730,7 +1745,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>9</v>
@@ -1758,12 +1773,12 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1792,7 +1807,7 @@
   <sheetData>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -1815,7 +1830,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -1838,7 +1853,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>9</v>
@@ -1866,12 +1881,12 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1900,7 +1915,7 @@
   <sheetData>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -1923,7 +1938,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -1946,7 +1961,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>9</v>
@@ -1974,12 +1989,12 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2008,7 +2023,7 @@
   <sheetData>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -2031,7 +2046,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -2054,7 +2069,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>9</v>
@@ -2082,12 +2097,12 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2116,7 +2131,7 @@
   <sheetData>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -2139,7 +2154,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -2162,7 +2177,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>9</v>
@@ -2190,12 +2205,12 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2224,7 +2239,7 @@
   <sheetData>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -2247,7 +2262,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -2270,7 +2285,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>9</v>
@@ -2298,12 +2313,12 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2332,7 +2347,7 @@
   <sheetData>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -2355,7 +2370,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -2378,7 +2393,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>9</v>
@@ -2406,12 +2421,12 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
